--- a/results/searchstims/source_data/classify-v-detect/table.xlsx
+++ b/results/searchstims/source_data/classify-v-detect/table.xlsx
@@ -1,37 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidnicholson/Documents/repos/coding/l2m/Nicholson-Prinz-2021/results/searchstims/source_data/classify-v-detect/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B18E8A9-2137-D440-964C-5E7B3A9E06A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>VGG16</t>
+  </si>
+  <si>
+    <t>image classification</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>object detection</t>
+  </si>
+  <si>
+    <t>objectness
+score threshold</t>
+  </si>
+  <si>
+    <t>n. region proposals
+(post-NMS)</t>
+  </si>
+  <si>
+    <t>n. region proposals
+(pre-NMS)</t>
+  </si>
+  <si>
+    <t>overlap
+threshold</t>
+  </si>
+  <si>
+    <t>acc.
+(set size 2)</t>
+  </si>
+  <si>
+    <t>acc.
+(set size 1)</t>
+  </si>
+  <si>
+    <t>acc. 
+(set size 4)</t>
+  </si>
+  <si>
+    <t>acc.
+ (set size 8)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +113,107 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7ADD0FC8-E2D2-8F40-ADD2-98952F76A62A}" name="Table2" displayName="Table2" ref="A1:J6" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:J6" xr:uid="{566C1BE4-C8E8-3E49-87D9-CEE6153ED00F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{3EC8111F-A3F2-BA4B-9F18-73B25F36098D}" name="network"/>
+    <tableColumn id="2" xr3:uid="{B323A18F-3DB9-1E41-85EE-62B2F13CA027}" name="task"/>
+    <tableColumn id="3" xr3:uid="{C286DDD8-E08F-2F4E-B44B-0D7CB271113B}" name="objectness_x000a_score threshold"/>
+    <tableColumn id="4" xr3:uid="{6C8A495F-B25D-1141-84D2-883D4F749ADB}" name="n. region proposals_x000a_(pre-NMS)"/>
+    <tableColumn id="5" xr3:uid="{91C43E3F-25A5-1F44-BF4C-F51DBA314581}" name="n. region proposals_x000a_(post-NMS)"/>
+    <tableColumn id="6" xr3:uid="{9193BFD7-E0ED-F14A-A0BF-F9F73EE95DA1}" name="overlap_x000a_threshold"/>
+    <tableColumn id="7" xr3:uid="{912BA988-F3E5-B344-A835-7498E10782C2}" name="acc._x000a_(set size 1)"/>
+    <tableColumn id="8" xr3:uid="{FF77E371-666C-4840-8FD6-567846FC2DD2}" name="acc._x000a_(set size 2)"/>
+    <tableColumn id="9" xr3:uid="{4A1CC80B-2E25-0E46-B551-FD7FC8271C0F}" name="acc. _x000a_(set size 4)"/>
+    <tableColumn id="10" xr3:uid="{BCA2E76C-6FD8-9246-85C8-F1D372029C78}" name="acc._x000a_ (set size 8)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,275 +500,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>objectness score threshold</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>n. region proposals (pre-NMS)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>n. region proposals (post-NMS)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>overlap threshold</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>acc. (set size 1)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>acc. (set size 2)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>acc. (set size 4)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>acc. (set size 8)</t>
-        </is>
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>0.99507812499999992</v>
+      </c>
+      <c r="H2">
+        <v>0.97117187500000002</v>
+      </c>
+      <c r="I2">
+        <v>0.897578125</v>
+      </c>
+      <c r="J2">
+        <v>0.79328124999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>VGG16</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>image classification</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0.9950781249999999</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.971171875</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.897578125</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7932812499999999</v>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>VGG16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>object detection</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>VGG16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>object detection</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.95</v>
+      </c>
+      <c r="D5">
         <v>100</v>
       </c>
-      <c r="F4" t="n">
+      <c r="E5">
         <v>100</v>
       </c>
-      <c r="G4" t="n">
+      <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.99875000000000003</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>VGG16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>object detection</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
         <v>0.95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="D6">
         <v>100</v>
       </c>
-      <c r="F5" t="n">
+      <c r="E6">
         <v>100</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.99875</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>VGG16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>object detection</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="F6">
         <v>0.95</v>
       </c>
-      <c r="E6" t="n">
-        <v>100</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.9975000000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.99625</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.985</v>
+      <c r="G6">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="H6">
+        <v>0.99750000000000005</v>
+      </c>
+      <c r="I6">
+        <v>0.99624999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.98499999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>